--- a/public/upload/excel/demo.xlsx
+++ b/public/upload/excel/demo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Brand Name</t>
   </si>
@@ -34,16 +34,46 @@
   </si>
   <si>
     <t>Generate OTP</t>
+  </si>
+  <si>
+    <t>Whatsaapp</t>
+  </si>
+  <si>
+    <t>www.whatsapp.com</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>www.facebook.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -64,15 +94,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -131,7 +164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,7 +199,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,7 +411,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,18 +441,38 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>741258963</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -430,6 +483,10 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>